--- a/WRITE4u-work dates-24.xlsx
+++ b/WRITE4u-work dates-24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="435">
   <si>
     <t>ID:AH20142</t>
   </si>
@@ -1284,13 +1284,58 @@
   </si>
   <si>
     <t>plSql</t>
+  </si>
+  <si>
+    <t>ID:AH21442</t>
+  </si>
+  <si>
+    <t>python  Linux terminal commands</t>
+  </si>
+  <si>
+    <t>25-07-222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covid-19 Ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No ID  Covid -19 Ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing part </t>
+  </si>
+  <si>
+    <t>600 words</t>
+  </si>
+  <si>
+    <t>AH21476</t>
+  </si>
+  <si>
+    <t>TH7144CEM Principles of Data Science- Gunjan</t>
+  </si>
+  <si>
+    <t>Mathamatical</t>
+  </si>
+  <si>
+    <t>7071CEM</t>
+  </si>
+  <si>
+    <t>python + web scraping</t>
+  </si>
+  <si>
+    <t>Tamana scripting skill python</t>
+  </si>
+  <si>
+    <t>Scripting languge Python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1396,6 +1441,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1464,7 +1520,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1538,6 +1594,8 @@
     <xf numFmtId="14" fontId="7" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent3" xfId="7" builtinId="38"/>
@@ -1839,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W205"/>
+  <dimension ref="A1:W211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -4541,7 +4599,7 @@
       <c r="A153" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="9">
         <v>44750</v>
       </c>
       <c r="C153" s="10" t="s">
@@ -5579,6 +5637,90 @@
       </c>
       <c r="D205" s="1" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B206" s="2">
+        <v>44767</v>
+      </c>
+      <c r="C206" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B208" s="2">
+        <v>44737</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B209" s="2">
+        <v>44768</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B210" s="2">
+        <v>44768</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B211" s="2">
+        <v>44800</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
